--- a/ArticleManage/main_working_folder/output_folders/Data 12 Preparation of microporous activated/Data12_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 12 Preparation of microporous activated/Data12_all_graphs_excel.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 D1  0-1-0-7 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 N1  0-1-0-7 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 N2  0-1-0-7 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2 N3  0-1-0-7 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 2 N8  0-1-0-7 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 2 S2  0-1-0-7 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 2 T1  0-1-0-7 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 2 D1  0&amp;1&amp;0&amp;7 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 N1  0&amp;1&amp;0&amp;7 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 N2  0&amp;1&amp;0&amp;7 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 N3  0&amp;1&amp;0&amp;7 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 N8  0&amp;1&amp;0&amp;7 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2 S2  0&amp;1&amp;0&amp;7 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2 T1  0&amp;1&amp;0&amp;7 " sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -180,12 +180,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 D1  0-1-0-7 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 D1  0&amp;1&amp;0&amp;7 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 D1  0-1-0-7 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 D1  0&amp;1&amp;0&amp;7 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -494,12 +494,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 N1  0-1-0-7 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 N1  0&amp;1&amp;0&amp;7 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 N1  0-1-0-7 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 N1  0&amp;1&amp;0&amp;7 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -808,12 +808,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 N2  0-1-0-7 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 N2  0&amp;1&amp;0&amp;7 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 N2  0-1-0-7 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 N2  0&amp;1&amp;0&amp;7 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1122,12 +1122,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 N3  0-1-0-7 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 N3  0&amp;1&amp;0&amp;7 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 N3  0-1-0-7 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 N3  0&amp;1&amp;0&amp;7 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1436,12 +1436,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 N8  0-1-0-7 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 N8  0&amp;1&amp;0&amp;7 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 N8  0-1-0-7 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 N8  0&amp;1&amp;0&amp;7 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1750,12 +1750,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 S2  0-1-0-7 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 S2  0&amp;1&amp;0&amp;7 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 S2  0-1-0-7 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 S2  0&amp;1&amp;0&amp;7 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2064,12 +2064,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 T1  0-1-0-7 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 T1  0&amp;1&amp;0&amp;7 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 T1  0-1-0-7 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 T1  0&amp;1&amp;0&amp;7 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>

--- a/ArticleManage/main_working_folder/output_folders/Data 12 Preparation of microporous activated/Data12_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 12 Preparation of microporous activated/Data12_all_graphs_excel.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 D1  0&amp;1&amp;0&amp;7 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 N1  0&amp;1&amp;0&amp;7 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 N2  0&amp;1&amp;0&amp;7 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2 N3  0&amp;1&amp;0&amp;7 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 2 N8  0&amp;1&amp;0&amp;7 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 2 S2  0&amp;1&amp;0&amp;7 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 2 T1  0&amp;1&amp;0&amp;7 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 2 D-1  0&amp;1&amp;0&amp;7 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 N-1  0&amp;1&amp;0&amp;7 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 N-2  0&amp;1&amp;0&amp;7 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 N-3  0&amp;1&amp;0&amp;7 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 N-8  0&amp;1&amp;0&amp;7 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2 S-2  0&amp;1&amp;0&amp;7 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2 T-1  0&amp;1&amp;0&amp;7 " sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -20,7 +20,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>D1</t>
+    <t>D-1</t>
   </si>
   <si>
     <t>X</t>
@@ -29,22 +29,22 @@
     <t>Y</t>
   </si>
   <si>
-    <t>N1</t>
+    <t>N-1</t>
   </si>
   <si>
-    <t>N2</t>
+    <t>N-2</t>
   </si>
   <si>
-    <t>N3</t>
+    <t>N-3</t>
   </si>
   <si>
-    <t>N8</t>
+    <t>N-8</t>
   </si>
   <si>
-    <t>S2</t>
+    <t>S-2</t>
   </si>
   <si>
-    <t>T1</t>
+    <t>T-1</t>
   </si>
 </sst>
 </file>
@@ -121,7 +121,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki D1 z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki D-1 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -180,12 +180,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 D1  0&amp;1&amp;0&amp;7 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 D-1  0&amp;1&amp;0&amp;7 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 D1  0&amp;1&amp;0&amp;7 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 D-1  0&amp;1&amp;0&amp;7 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -435,7 +435,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki N1 z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki N-1 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -494,12 +494,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 N1  0&amp;1&amp;0&amp;7 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 N-1  0&amp;1&amp;0&amp;7 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 N1  0&amp;1&amp;0&amp;7 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 N-1  0&amp;1&amp;0&amp;7 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -749,7 +749,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki N2 z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki N-2 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -808,12 +808,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 N2  0&amp;1&amp;0&amp;7 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 N-2  0&amp;1&amp;0&amp;7 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 N2  0&amp;1&amp;0&amp;7 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 N-2  0&amp;1&amp;0&amp;7 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1063,7 +1063,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki N3 z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki N-3 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1122,12 +1122,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 N3  0&amp;1&amp;0&amp;7 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 N-3  0&amp;1&amp;0&amp;7 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 N3  0&amp;1&amp;0&amp;7 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 N-3  0&amp;1&amp;0&amp;7 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1377,7 +1377,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki N8 z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki N-8 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1436,12 +1436,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 N8  0&amp;1&amp;0&amp;7 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 N-8  0&amp;1&amp;0&amp;7 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 N8  0&amp;1&amp;0&amp;7 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 N-8  0&amp;1&amp;0&amp;7 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1691,7 +1691,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki S2 z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki S-2 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1750,12 +1750,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 S2  0&amp;1&amp;0&amp;7 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 S-2  0&amp;1&amp;0&amp;7 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 S2  0&amp;1&amp;0&amp;7 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 S-2  0&amp;1&amp;0&amp;7 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2005,7 +2005,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki T1 z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki T-1 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2064,12 +2064,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 T1  0&amp;1&amp;0&amp;7 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 T-1  0&amp;1&amp;0&amp;7 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 T1  0&amp;1&amp;0&amp;7 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 T-1  0&amp;1&amp;0&amp;7 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -6755,7 +6755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6776,397 +6776,101 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.9359</v>
       </c>
       <c r="B3" s="0">
-        <v>5.3115</v>
+        <v>6.0084</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.7514</v>
       </c>
       <c r="B4" s="0">
-        <v>5.4148</v>
+        <v>5.9531</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.6699</v>
       </c>
       <c r="B5" s="0">
-        <v>5.4981</v>
+        <v>5.9228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0.5548</v>
       </c>
       <c r="B6" s="0">
-        <v>5.5702</v>
+        <v>5.8825</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.444</v>
       </c>
       <c r="B7" s="0">
-        <v>5.6118</v>
+        <v>5.8319</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.3575</v>
       </c>
       <c r="B8" s="0">
-        <v>5.6379</v>
+        <v>5.7966</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.2767</v>
       </c>
       <c r="B9" s="0">
-        <v>5.6617</v>
+        <v>5.7714</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.2066</v>
       </c>
       <c r="B10" s="0">
-        <v>5.6818</v>
+        <v>5.7053</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.1416</v>
       </c>
       <c r="B11" s="0">
-        <v>5.6989</v>
+        <v>5.6341</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.0881</v>
       </c>
       <c r="B12" s="0">
-        <v>5.7161</v>
+        <v>5.527</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.0331</v>
       </c>
       <c r="B13" s="0">
-        <v>5.7341</v>
+        <v>5.246</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.26</v>
+        <v>0.0089</v>
       </c>
       <c r="B14" s="0">
-        <v>5.7507</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.28</v>
-      </c>
-      <c r="B15" s="0">
-        <v>5.7643</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3</v>
-      </c>
-      <c r="B16" s="0">
-        <v>5.7777</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.32</v>
-      </c>
-      <c r="B17" s="0">
-        <v>5.7942</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.34</v>
-      </c>
-      <c r="B18" s="0">
-        <v>5.8099</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.36</v>
-      </c>
-      <c r="B19" s="0">
-        <v>5.8215</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.38</v>
-      </c>
-      <c r="B20" s="0">
-        <v>5.8287</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.4</v>
-      </c>
-      <c r="B21" s="0">
-        <v>5.833</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.42</v>
-      </c>
-      <c r="B22" s="0">
-        <v>5.8371</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.44</v>
-      </c>
-      <c r="B23" s="0">
-        <v>5.8448</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.46</v>
-      </c>
-      <c r="B24" s="0">
-        <v>5.8474</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.48</v>
-      </c>
-      <c r="B25" s="0">
-        <v>5.8512</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B26" s="0">
-        <v>5.8665</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B27" s="0">
-        <v>5.8866</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B28" s="0">
-        <v>5.9056</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B29" s="0">
-        <v>5.9186</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B30" s="0">
-        <v>5.9145</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B31" s="0">
-        <v>5.9119</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B32" s="0">
-        <v>5.9116</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B33" s="0">
-        <v>5.9163</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B34" s="0">
-        <v>5.9236</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B35" s="0">
-        <v>5.93</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B36" s="0">
-        <v>5.9398</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B37" s="0">
-        <v>5.955</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B38" s="0">
-        <v>5.9704</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B39" s="0">
-        <v>5.9817</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B40" s="0">
-        <v>5.9882</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B41" s="0">
-        <v>5.9906</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B42" s="0">
-        <v>5.9921</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B43" s="0">
-        <v>5.9965</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B44" s="0">
-        <v>6.002</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B45" s="0">
-        <v>6.007</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B46" s="0">
-        <v>6.0122</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B47" s="0">
-        <v>6.0161</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0245</v>
-      </c>
-      <c r="B48" s="0">
-        <v>5.1603</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0068</v>
-      </c>
-      <c r="B49" s="0">
-        <v>4.7109</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0043</v>
-      </c>
-      <c r="B50" s="0">
-        <v>4.5167</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0008</v>
-      </c>
-      <c r="B51" s="0">
-        <v>2.473</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>4.6223</v>
+      </c>
+    </row>
+    <row r="15"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7175,7 +6879,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7196,365 +6900,109 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.884</v>
       </c>
       <c r="B3" s="0">
-        <v>4.9619</v>
+        <v>5.661</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.8223</v>
       </c>
       <c r="B4" s="0">
-        <v>5.0509</v>
+        <v>5.6562</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.697</v>
       </c>
       <c r="B5" s="0">
-        <v>5.1355</v>
+        <v>5.6415</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0.5837</v>
       </c>
       <c r="B6" s="0">
-        <v>5.2008</v>
+        <v>5.5909</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.4921</v>
       </c>
       <c r="B7" s="0">
-        <v>5.2416</v>
+        <v>5.5505</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.3953</v>
       </c>
       <c r="B8" s="0">
-        <v>5.266</v>
+        <v>5.5101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.3138</v>
       </c>
       <c r="B9" s="0">
-        <v>5.286</v>
+        <v>5.4338</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.238</v>
       </c>
       <c r="B10" s="0">
-        <v>5.3138</v>
+        <v>5.3677</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.1585</v>
       </c>
       <c r="B11" s="0">
-        <v>5.3458</v>
+        <v>5.3119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.0985</v>
       </c>
       <c r="B12" s="0">
-        <v>5.3713</v>
+        <v>5.1894</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.0314</v>
       </c>
       <c r="B13" s="0">
-        <v>5.3877</v>
+        <v>4.9086</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.26</v>
+        <v>0.0089</v>
       </c>
       <c r="B14" s="0">
-        <v>5.3973</v>
+        <v>4.0445</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.28</v>
+        <v>0.0035</v>
       </c>
       <c r="B15" s="0">
-        <v>5.4059</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3</v>
-      </c>
-      <c r="B16" s="0">
-        <v>5.4163</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.32</v>
-      </c>
-      <c r="B17" s="0">
-        <v>5.4294</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.34</v>
-      </c>
-      <c r="B18" s="0">
-        <v>5.4454</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.36</v>
-      </c>
-      <c r="B19" s="0">
-        <v>5.4642</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.38</v>
-      </c>
-      <c r="B20" s="0">
-        <v>5.4847</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.4</v>
-      </c>
-      <c r="B21" s="0">
-        <v>5.5026</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.42</v>
-      </c>
-      <c r="B22" s="0">
-        <v>5.5117</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.44</v>
-      </c>
-      <c r="B23" s="0">
-        <v>5.5146</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.46</v>
-      </c>
-      <c r="B24" s="0">
-        <v>5.52</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.48</v>
-      </c>
-      <c r="B25" s="0">
-        <v>5.5272</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B26" s="0">
-        <v>5.5331</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B27" s="0">
-        <v>5.5433</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B28" s="0">
-        <v>5.5602</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B29" s="0">
-        <v>5.5785</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B30" s="0">
-        <v>5.5907</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B31" s="0">
-        <v>5.5929</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B32" s="0">
-        <v>5.5923</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B33" s="0">
-        <v>5.5944</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B34" s="0">
-        <v>5.6016</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B35" s="0">
-        <v>5.6112</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B36" s="0">
-        <v>5.6181</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B37" s="0">
-        <v>5.6235</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B38" s="0">
-        <v>5.6298</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B39" s="0">
-        <v>5.6392</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B40" s="0">
-        <v>5.6509</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8015</v>
-      </c>
-      <c r="B41" s="0">
-        <v>5.6429</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8334</v>
-      </c>
-      <c r="B42" s="0">
-        <v>5.6528</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.8627</v>
-      </c>
-      <c r="B43" s="0">
-        <v>5.6525</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.878</v>
-      </c>
-      <c r="B44" s="0">
-        <v>5.6523</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.8155</v>
-      </c>
-      <c r="B45" s="0">
-        <v>5.6428</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.0271</v>
-      </c>
-      <c r="B46" s="0">
-        <v>4.9048</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.0031</v>
-      </c>
-      <c r="B47" s="0">
-        <v>4.0569</v>
-      </c>
-    </row>
-    <row r="48"/>
+        <v>2.0709</v>
+      </c>
+    </row>
+    <row r="16"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7563,7 +7011,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7584,381 +7032,109 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.9508</v>
       </c>
       <c r="B3" s="0">
-        <v>4.7461</v>
+        <v>5.589</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.8451</v>
       </c>
       <c r="B4" s="0">
-        <v>4.8328</v>
+        <v>5.5436</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.728</v>
       </c>
       <c r="B5" s="0">
-        <v>4.9168</v>
+        <v>5.4981</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.6453</v>
       </c>
       <c r="B6" s="0">
-        <v>5.0031</v>
+        <v>5.4832</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.5543</v>
       </c>
       <c r="B7" s="0">
-        <v>5.0711</v>
+        <v>5.4837</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.4722</v>
       </c>
       <c r="B8" s="0">
-        <v>5.1197</v>
+        <v>5.4279</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.3818</v>
       </c>
       <c r="B9" s="0">
-        <v>5.158</v>
+        <v>5.367</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.2672</v>
       </c>
       <c r="B10" s="0">
-        <v>5.1933</v>
+        <v>5.3164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.2067</v>
       </c>
       <c r="B11" s="0">
-        <v>5.2288</v>
+        <v>5.2349</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.1469</v>
       </c>
       <c r="B12" s="0">
-        <v>5.2554</v>
+        <v>5.1841</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.0716</v>
       </c>
       <c r="B13" s="0">
-        <v>5.2759</v>
+        <v>5.0106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.0242</v>
       </c>
       <c r="B14" s="0">
-        <v>5.294</v>
+        <v>4.6938</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.0035</v>
       </c>
       <c r="B15" s="0">
-        <v>5.3088</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.28</v>
-      </c>
-      <c r="B16" s="0">
-        <v>5.3228</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3</v>
-      </c>
-      <c r="B17" s="0">
-        <v>5.3375</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.32</v>
-      </c>
-      <c r="B18" s="0">
-        <v>5.3505</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.34</v>
-      </c>
-      <c r="B19" s="0">
-        <v>5.3638</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.36</v>
-      </c>
-      <c r="B20" s="0">
-        <v>5.3778</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.38</v>
-      </c>
-      <c r="B21" s="0">
-        <v>5.3892</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.4</v>
-      </c>
-      <c r="B22" s="0">
-        <v>5.3982</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.42</v>
-      </c>
-      <c r="B23" s="0">
-        <v>5.404</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.44</v>
-      </c>
-      <c r="B24" s="0">
-        <v>5.4129</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.46</v>
-      </c>
-      <c r="B25" s="0">
-        <v>5.4248</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.48</v>
-      </c>
-      <c r="B26" s="0">
-        <v>5.4366</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B27" s="0">
-        <v>5.4459</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B28" s="0">
-        <v>5.4532</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B29" s="0">
-        <v>5.4627</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B30" s="0">
-        <v>5.4743</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B31" s="0">
-        <v>5.4909</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B32" s="0">
-        <v>5.5063</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B33" s="0">
-        <v>5.5166</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B34" s="0">
-        <v>5.5225</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B35" s="0">
-        <v>5.5244</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B36" s="0">
-        <v>5.5262</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B37" s="0">
-        <v>5.5308</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B38" s="0">
-        <v>5.5353</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B39" s="0">
-        <v>5.5364</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B40" s="0">
-        <v>5.536</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>5.5372</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>5.5449</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>5.5575</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>5.5696</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>5.5768</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>5.5814</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>5.5869</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9442</v>
-      </c>
-      <c r="B48" s="0">
-        <v>5.5904</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9289</v>
-      </c>
-      <c r="B49" s="0">
-        <v>5.5803</v>
-      </c>
-    </row>
-    <row r="50"/>
+        <v>2.6487</v>
+      </c>
+    </row>
+    <row r="16"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7967,7 +7143,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7988,341 +7164,109 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.8627</v>
       </c>
       <c r="B3" s="0">
-        <v>3.8967</v>
+        <v>4.7663</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.7717</v>
       </c>
       <c r="B4" s="0">
-        <v>4.0373</v>
+        <v>4.7412</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.661</v>
       </c>
       <c r="B5" s="0">
-        <v>4.1693</v>
+        <v>4.7162</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0.5414</v>
       </c>
       <c r="B6" s="0">
-        <v>4.2612</v>
+        <v>4.6912</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.4523</v>
       </c>
       <c r="B7" s="0">
-        <v>4.3243</v>
+        <v>4.661</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.3536</v>
       </c>
       <c r="B8" s="0">
-        <v>4.3779</v>
+        <v>4.6206</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.2741</v>
       </c>
       <c r="B9" s="0">
-        <v>4.4245</v>
+        <v>4.575</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.2034</v>
       </c>
       <c r="B10" s="0">
-        <v>4.4685</v>
+        <v>4.5293</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.1428</v>
       </c>
       <c r="B11" s="0">
-        <v>4.5068</v>
+        <v>4.366</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.0886</v>
       </c>
       <c r="B12" s="0">
-        <v>4.5392</v>
+        <v>4.2333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.0501</v>
       </c>
       <c r="B13" s="0">
-        <v>4.5643</v>
+        <v>3.9625</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.26</v>
+        <v>0.0064</v>
       </c>
       <c r="B14" s="0">
-        <v>4.5777</v>
+        <v>3.5486</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.28</v>
+        <v>0.0046</v>
       </c>
       <c r="B15" s="0">
-        <v>4.5827</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3</v>
-      </c>
-      <c r="B16" s="0">
-        <v>4.5901</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.32</v>
-      </c>
-      <c r="B17" s="0">
-        <v>4.5989</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.34</v>
-      </c>
-      <c r="B18" s="0">
-        <v>4.6089</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.36</v>
-      </c>
-      <c r="B19" s="0">
-        <v>4.6203</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.38</v>
-      </c>
-      <c r="B20" s="0">
-        <v>4.6312</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.4</v>
-      </c>
-      <c r="B21" s="0">
-        <v>4.6415</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.42</v>
-      </c>
-      <c r="B22" s="0">
-        <v>4.6523</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.44</v>
-      </c>
-      <c r="B23" s="0">
-        <v>4.6569</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.46</v>
-      </c>
-      <c r="B24" s="0">
-        <v>4.662</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.48</v>
-      </c>
-      <c r="B25" s="0">
-        <v>4.6707</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B26" s="0">
-        <v>4.6803</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B27" s="0">
-        <v>4.6883</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B28" s="0">
-        <v>4.6923</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B29" s="0">
-        <v>4.6898</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B30" s="0">
-        <v>4.6858</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B31" s="0">
-        <v>4.6876</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B32" s="0">
-        <v>4.6958</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B33" s="0">
-        <v>4.7062</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B34" s="0">
-        <v>4.7148</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B35" s="0">
-        <v>4.7191</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B36" s="0">
-        <v>4.7197</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B37" s="0">
-        <v>4.7232</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B38" s="0">
-        <v>4.7343</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B39" s="0">
-        <v>4.7477</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B40" s="0">
-        <v>4.7594</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B41" s="0">
-        <v>4.7693</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B42" s="0">
-        <v>4.7752</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.845</v>
-      </c>
-      <c r="B43" s="0">
-        <v>4.7636</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.0032</v>
-      </c>
-      <c r="B44" s="0">
-        <v>3.5562</v>
-      </c>
-    </row>
-    <row r="45"/>
+        <v>2.4799</v>
+      </c>
+    </row>
+    <row r="16"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -8331,7 +7275,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8352,261 +7296,85 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0278</v>
+        <v>0.828</v>
       </c>
       <c r="B3" s="0">
-        <v>6.0546</v>
+        <v>6.735</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0533</v>
+        <v>0.7141</v>
       </c>
       <c r="B4" s="0">
-        <v>6.1597</v>
+        <v>6.7152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.079</v>
+        <v>0.6205</v>
       </c>
       <c r="B5" s="0">
-        <v>6.2609</v>
+        <v>6.6492</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1047</v>
+        <v>0.4907</v>
       </c>
       <c r="B6" s="0">
-        <v>6.3248</v>
+        <v>6.6447</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1304</v>
+        <v>0.3939</v>
       </c>
       <c r="B7" s="0">
-        <v>6.364</v>
+        <v>6.5736</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1561</v>
+        <v>0.2934</v>
       </c>
       <c r="B8" s="0">
-        <v>6.3924</v>
+        <v>6.5128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1818</v>
+        <v>0.2081</v>
       </c>
       <c r="B9" s="0">
-        <v>6.4467</v>
+        <v>6.4519</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.206</v>
+        <v>0.1507</v>
       </c>
       <c r="B10" s="0">
-        <v>6.4257</v>
+        <v>6.401</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2332</v>
+        <v>0.0914</v>
       </c>
       <c r="B11" s="0">
-        <v>6.4692</v>
+        <v>6.2735</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2589</v>
+        <v>0.0378</v>
       </c>
       <c r="B12" s="0">
-        <v>6.4814</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2846</v>
-      </c>
-      <c r="B13" s="0">
-        <v>6.503</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.3103</v>
-      </c>
-      <c r="B14" s="0">
-        <v>6.518</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.336</v>
-      </c>
-      <c r="B15" s="0">
-        <v>6.5372</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3617</v>
-      </c>
-      <c r="B16" s="0">
-        <v>6.5552</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3874</v>
-      </c>
-      <c r="B17" s="0">
-        <v>6.5522</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.4123</v>
-      </c>
-      <c r="B18" s="0">
-        <v>6.5835</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.4406</v>
-      </c>
-      <c r="B19" s="0">
-        <v>6.609</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.4645</v>
-      </c>
-      <c r="B20" s="0">
-        <v>6.6381</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.4903</v>
-      </c>
-      <c r="B21" s="0">
-        <v>6.6476</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.516</v>
-      </c>
-      <c r="B22" s="0">
-        <v>6.6316</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.5417</v>
-      </c>
-      <c r="B23" s="0">
-        <v>6.6314</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.5674</v>
-      </c>
-      <c r="B24" s="0">
-        <v>6.6311</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.5931</v>
-      </c>
-      <c r="B25" s="0">
-        <v>6.6405</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.6188</v>
-      </c>
-      <c r="B26" s="0">
-        <v>6.6508</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.6445</v>
-      </c>
-      <c r="B27" s="0">
-        <v>6.6601</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.6702</v>
-      </c>
-      <c r="B28" s="0">
-        <v>6.6897</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.6959</v>
-      </c>
-      <c r="B29" s="0">
-        <v>6.7081</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.7216</v>
-      </c>
-      <c r="B30" s="0">
-        <v>6.7216</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.7473</v>
-      </c>
-      <c r="B31" s="0">
-        <v>6.7239</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.773</v>
-      </c>
-      <c r="B32" s="0">
-        <v>6.7227</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.7987</v>
-      </c>
-      <c r="B33" s="0">
-        <v>6.7311</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.8228</v>
-      </c>
-      <c r="B34" s="0">
-        <v>6.7189</v>
-      </c>
-    </row>
-    <row r="35"/>
+        <v>6.0641</v>
+      </c>
+    </row>
+    <row r="13"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -8615,7 +7383,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8636,365 +7404,101 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.1</v>
+        <v>0.818</v>
       </c>
       <c r="B3" s="0">
-        <v>4.1247</v>
+        <v>4.5926</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.12</v>
+        <v>0.6824</v>
       </c>
       <c r="B4" s="0">
-        <v>4.1952</v>
+        <v>4.5422</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.14</v>
+        <v>0.5704</v>
       </c>
       <c r="B5" s="0">
-        <v>4.2366</v>
+        <v>4.4865</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.16</v>
+        <v>0.4444</v>
       </c>
       <c r="B6" s="0">
-        <v>4.2589</v>
+        <v>4.4463</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.18</v>
+        <v>0.349</v>
       </c>
       <c r="B7" s="0">
-        <v>4.276</v>
+        <v>4.4365</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.2</v>
+        <v>0.2465</v>
       </c>
       <c r="B8" s="0">
-        <v>4.2967</v>
+        <v>4.345</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.22</v>
+        <v>0.1503</v>
       </c>
       <c r="B9" s="0">
-        <v>4.319</v>
+        <v>4.2535</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.24</v>
+        <v>0.0916</v>
       </c>
       <c r="B10" s="0">
-        <v>4.3396</v>
+        <v>4.1259</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.26</v>
+        <v>0.0417</v>
       </c>
       <c r="B11" s="0">
-        <v>4.3565</v>
+        <v>3.8654</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.28</v>
+        <v>0.0101</v>
       </c>
       <c r="B12" s="0">
-        <v>4.3712</v>
+        <v>3.4156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3</v>
+        <v>0.0043</v>
       </c>
       <c r="B13" s="0">
-        <v>4.3848</v>
+        <v>2.2191</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.32</v>
+        <v>0.0026</v>
       </c>
       <c r="B14" s="0">
-        <v>4.398</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.34</v>
-      </c>
-      <c r="B15" s="0">
-        <v>4.4096</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.36</v>
-      </c>
-      <c r="B16" s="0">
-        <v>4.4185</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.38</v>
-      </c>
-      <c r="B17" s="0">
-        <v>4.4245</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.4</v>
-      </c>
-      <c r="B18" s="0">
-        <v>4.4292</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.42</v>
-      </c>
-      <c r="B19" s="0">
-        <v>4.4344</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.44</v>
-      </c>
-      <c r="B20" s="0">
-        <v>4.4413</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.46</v>
-      </c>
-      <c r="B21" s="0">
-        <v>4.4498</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.48</v>
-      </c>
-      <c r="B22" s="0">
-        <v>4.4599</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B23" s="0">
-        <v>4.4712</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B24" s="0">
-        <v>4.4826</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B25" s="0">
-        <v>4.4928</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B26" s="0">
-        <v>4.5011</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B27" s="0">
-        <v>4.508</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B28" s="0">
-        <v>4.5138</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B29" s="0">
-        <v>4.5189</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B30" s="0">
-        <v>4.5238</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B31" s="0">
-        <v>4.5286</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B32" s="0">
-        <v>4.534</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B33" s="0">
-        <v>4.5407</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B34" s="0">
-        <v>4.5498</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B35" s="0">
-        <v>4.5611</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B36" s="0">
-        <v>4.5703</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7801</v>
-      </c>
-      <c r="B37" s="0">
-        <v>4.5701</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.7979</v>
-      </c>
-      <c r="B38" s="0">
-        <v>4.5904</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8132</v>
-      </c>
-      <c r="B39" s="0">
-        <v>4.5902</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.0744</v>
-      </c>
-      <c r="B40" s="0">
-        <v>4.0766</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.0324</v>
-      </c>
-      <c r="B41" s="0">
-        <v>3.7807</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.0172</v>
-      </c>
-      <c r="B42" s="0">
-        <v>3.5662</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.007</v>
-      </c>
-      <c r="B43" s="0">
-        <v>3.4233</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.0401</v>
-      </c>
-      <c r="B44" s="0">
-        <v>3.8726</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.0553</v>
-      </c>
-      <c r="B45" s="0">
-        <v>3.9542</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.0021</v>
-      </c>
-      <c r="B46" s="0">
-        <v>2.2073</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.0023</v>
-      </c>
-      <c r="B47" s="0">
-        <v>1.2263</v>
-      </c>
-    </row>
-    <row r="48"/>
+        <v>1.2272</v>
+      </c>
+    </row>
+    <row r="15"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -9003,7 +7507,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9024,245 +7528,101 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0539</v>
+        <v>0.9238</v>
       </c>
       <c r="B3" s="0">
-        <v>2.8225</v>
+        <v>3.595</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0843</v>
+        <v>0.8003</v>
       </c>
       <c r="B4" s="0">
-        <v>2.9491</v>
+        <v>3.5599</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1165</v>
+        <v>0.7042</v>
       </c>
       <c r="B5" s="0">
-        <v>3.0913</v>
+        <v>3.5348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.145</v>
+        <v>0.5846</v>
       </c>
       <c r="B6" s="0">
-        <v>3.1439</v>
+        <v>3.4945</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1772</v>
+        <v>0.4866</v>
       </c>
       <c r="B7" s="0">
-        <v>3.1948</v>
+        <v>3.4439</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.2048</v>
+        <v>0.3885</v>
       </c>
       <c r="B8" s="0">
-        <v>3.2075</v>
+        <v>3.3677</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2361</v>
+        <v>0.3006</v>
       </c>
       <c r="B9" s="0">
-        <v>3.2295</v>
+        <v>3.2761</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2665</v>
+        <v>0.2033</v>
       </c>
       <c r="B10" s="0">
-        <v>3.2494</v>
+        <v>3.2152</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2969</v>
+        <v>0.1338</v>
       </c>
       <c r="B11" s="0">
-        <v>3.2729</v>
+        <v>3.1235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.3249</v>
+        <v>0.0648</v>
       </c>
       <c r="B12" s="0">
-        <v>3.31</v>
+        <v>2.8682</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.374</v>
+        <v>0.009</v>
       </c>
       <c r="B13" s="0">
-        <v>3.339</v>
+        <v>2.4339</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4044</v>
+        <v>0.0013</v>
       </c>
       <c r="B14" s="0">
-        <v>3.3801</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.4336</v>
-      </c>
-      <c r="B15" s="0">
-        <v>3.4054</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.4704</v>
-      </c>
-      <c r="B16" s="0">
-        <v>3.4433</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.5002</v>
-      </c>
-      <c r="B17" s="0">
-        <v>3.448</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.5246</v>
-      </c>
-      <c r="B18" s="0">
-        <v>3.4631</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.5798</v>
-      </c>
-      <c r="B19" s="0">
-        <v>3.4708</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.61</v>
-      </c>
-      <c r="B20" s="0">
-        <v>3.481</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.6443</v>
-      </c>
-      <c r="B21" s="0">
-        <v>3.5056</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.6708</v>
-      </c>
-      <c r="B22" s="0">
-        <v>3.5222</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.7012</v>
-      </c>
-      <c r="B23" s="0">
-        <v>3.5336</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.7315</v>
-      </c>
-      <c r="B24" s="0">
-        <v>3.5353</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.7627</v>
-      </c>
-      <c r="B25" s="0">
-        <v>3.5513</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.7923</v>
-      </c>
-      <c r="B26" s="0">
-        <v>3.5656</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.8227</v>
-      </c>
-      <c r="B27" s="0">
-        <v>3.5554</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.8577</v>
-      </c>
-      <c r="B28" s="0">
-        <v>3.5759</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.8881</v>
-      </c>
-      <c r="B29" s="0">
-        <v>3.5906</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.9185</v>
-      </c>
-      <c r="B30" s="0">
-        <v>3.5929</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0352</v>
-      </c>
-      <c r="B31" s="0">
-        <v>2.6361</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.0098</v>
-      </c>
-      <c r="B32" s="0">
-        <v>2.4218</v>
-      </c>
-    </row>
-    <row r="33"/>
+        <v>-0.0102</v>
+      </c>
+    </row>
+    <row r="15"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
